--- a/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.167</v>
+        <v>17.146</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.763</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.048</v>
+        <v>12.503</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.156</v>
+        <v>4.211</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.341828118300665</v>
+        <v>9.048488460614607</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.155016652487916</v>
+        <v>5.373448528082523</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.57665711387784</v>
+        <v>19.86081458294641</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.221423707687364</v>
+        <v>0.9714501997999498</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.3946474159732</v>
+        <v>9.825940163153042</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.406237284462058</v>
+        <v>11.71729091048985</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.838808697996679</v>
+        <v>4.171319639846189</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.08614620233676</v>
+        <v>19.64837580323988</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.38770270207468</v>
+        <v>26.0433904200046</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.989523453076231</v>
+        <v>8.842415495667201</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.26221893315572</v>
+        <v>12.65883487834599</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.92475716499163</v>
+        <v>14.76347837860923</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.409905944355792</v>
+        <v>14.64768119309116</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.447180581772944</v>
+        <v>13.18286982175782</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.75079762104122</v>
+        <v>30.99000531589973</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.63514389518051</v>
+        <v>7.745025411402882</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.15504309459954</v>
+        <v>22.81858006345966</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.72697123802034</v>
+        <v>29.04298206296892</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.357461557315279</v>
+        <v>0.1938513259286871</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.128422126029665</v>
+        <v>10.05596315246927</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.37530459936236</v>
+        <v>12.94810668691416</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.256238429009116</v>
+        <v>1.108524198983456</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.71280166152363</v>
+        <v>23.37938172674209</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.767089773893108</v>
+        <v>10.81982908216206</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11.67478742291918</v>
+        <v>15.02829034873323</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>18.86580757432076</v>
+        <v>20.92287803166057</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.623244839488216</v>
+        <v>-0.3518533517814362</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.24344462567595</v>
+        <v>22.20041388932261</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.12972048330598</v>
+        <v>23.72600424952348</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-4.744904891822433</v>
+        <v>4.676312904260154</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.19412636152159</v>
+        <v>29.92136503443579</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.4891121731985</v>
+        <v>31.93881883808282</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.00132511881468</v>
+        <v>30.90711103843846</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.00978589324183</v>
+        <v>34.8434506805217</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.74178307601619</v>
+        <v>37.97774007931619</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>9.280889234301267</v>
+        <v>18.71323077854772</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.60991304874446</v>
+        <v>40.23110062347017</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.44583507558248</v>
+        <v>46.64558330955087</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.84109463788402</v>
+        <v>13.75223604565297</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.18954109640199</v>
+        <v>32.76311762054279</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.48804411494708</v>
+        <v>34.27720486173158</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.731634170465529</v>
+        <v>1.864453246804725</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.4019502461666</v>
+        <v>30.23193127803961</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.42367826718369</v>
+        <v>33.97016033321732</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.671890737394783</v>
+        <v>4.826329510804541</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.10849116192427</v>
+        <v>51.15677436102769</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.2214185357648581</v>
+        <v>-1.024627067009174</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.637747405032197</v>
+        <v>6.901544419071111</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.77498686749864</v>
+        <v>17.94198102552323</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.760588095741383</v>
+        <v>-3.262230207870058</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16.86999067975471</v>
+        <v>18.39822785991098</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.46332709413221</v>
+        <v>22.36204903666533</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-5.095674149669648</v>
+        <v>5.638963711176498</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.34627020969172</v>
+        <v>28.87750638864459</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.34956714083636</v>
+        <v>36.59261715383802</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.02817666782279</v>
+        <v>33.78421787672178</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.92202151794136</v>
+        <v>38.43372429456016</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42.57139168804376</v>
+        <v>42.71507992057255</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.754540787159723</v>
+        <v>1.313015079020541</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.2038741930922</v>
+        <v>28.37744509431974</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.20533424389198</v>
+        <v>35.45058254712166</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8.877047478103961</v>
+        <v>9.243949277434599</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.47313897985681</v>
+        <v>29.5440682670723</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.99844146911602</v>
+        <v>33.53299047140234</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.276402097797448</v>
+        <v>1.253491074027867</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.43807169789475</v>
+        <v>24.17765022818703</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.69905826216799</v>
+        <v>33.62881495512574</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.213254466670065</v>
+        <v>5.34398804122392</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.72790204782129</v>
+        <v>44.97805795516339</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-5.196809206766751</v>
+        <v>-2.167825153883339</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.8778903035017755</v>
+        <v>2.593302161476775</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>15.06381503595045</v>
+        <v>18.51556852325024</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4.144052772815179</v>
+        <v>-3.789509950519442</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>13.73636284870853</v>
+        <v>17.08927370229314</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.60584686611116</v>
+        <v>24.06370051092692</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-6.899678434109394</v>
+        <v>-2.69960937683485</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.32463120875756</v>
+        <v>22.89490884174919</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.00738157942055</v>
+        <v>34.1221308779017</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.42825279906418</v>
+        <v>25.37765375510507</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.4838835854551</v>
+        <v>29.09706481404225</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.81980019491779</v>
+        <v>38.21210657580357</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.02507221580714614</v>
+        <v>-2.533782462250169</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.68451330304348</v>
+        <v>20.50464939593591</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.21405013567194</v>
+        <v>38.75033417586315</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5.555699370451233</v>
+        <v>4.327267347884558</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>21.44913307664568</v>
+        <v>23.69677383603246</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.38895098341217</v>
+        <v>32.64750059092453</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.4543075691020597</v>
+        <v>0.7311823954661598</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.54826503017357</v>
+        <v>20.65241290408778</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.50394665552908</v>
+        <v>33.8735178550971</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.1565705777703492</v>
+        <v>2.124100144383732</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.48862809327821</v>
+        <v>36.2592413329095</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.36597925768378</v>
+        <v>28.7847918700053</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.89457786851783</v>
+        <v>23.73389948349138</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.49720994915707</v>
+        <v>36.97093170258167</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.61129018667962</v>
+        <v>38.95964551538656</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.434155932394059</v>
+        <v>9.850405081794911</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.12051948010362</v>
+        <v>19.55298275458932</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.24494027638329</v>
+        <v>26.61245045043883</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.35243609477449</v>
+        <v>10.29663995730162</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.91426092154706</v>
+        <v>22.54879800609742</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.35638436073498</v>
+        <v>36.60994939246233</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1.97066138099952</v>
+        <v>-4.518404476954068</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.34654384072768</v>
+        <v>9.155024424899008</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.75385061361898</v>
+        <v>17.55048039450677</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.707099886463862</v>
+        <v>-0.1157173520007362</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.40319773597136</v>
+        <v>25.92290887995086</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.52685189731831</v>
+        <v>44.51485566360225</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.1894745840975</v>
+        <v>28.03979947109714</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.78948084779654</v>
+        <v>46.60577875116746</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.44086905936743</v>
+        <v>50.04441863088442</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.123833086398061</v>
+        <v>6.266926597014375</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.99077702780858</v>
+        <v>22.20657271705021</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.61698286173532</v>
+        <v>37.78437408408825</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.35286081980996</v>
+        <v>57.55629973943994</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.42398835980821</v>
+        <v>49.54386020388864</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.6559587150621</v>
+        <v>56.71370275492566</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.25728044309183</v>
+        <v>58.46009533252673</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.5499381717841</v>
+        <v>17.58724848613355</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.71858676801101</v>
+        <v>57.78829992290197</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>56.93933424803784</v>
+        <v>57.69343633422591</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.96524606172165</v>
+        <v>19.54410473956196</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.95461854539401</v>
+        <v>38.64693923070075</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.20884038046862</v>
+        <v>45.86233231963072</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.966451987245119</v>
+        <v>4.269006870251886</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.26502415795655</v>
+        <v>42.07838568527563</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.78974289527932</v>
+        <v>47.07066069449897</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>9.604923278261072</v>
+        <v>8.577206151341986</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.23987290475299</v>
+        <v>67.68218091075001</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.73271058127325</v>
+        <v>72.64004100115308</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.97980879079131</v>
+        <v>75.52152538003688</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.86013201177074</v>
+        <v>81.93170227655231</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.06750562057236</v>
+        <v>85.11123133074479</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.81602464823589</v>
+        <v>27.25398813551827</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.61004782558382</v>
+        <v>77.0341350143798</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.41761566142863</v>
+        <v>81.09987631928101</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55.51338535674966</v>
+        <v>60.47314955375221</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.13393939660321</v>
+        <v>43.82421063403896</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.12070388033993</v>
+        <v>49.61622658224269</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>56.73855410135621</v>
+        <v>59.77111278882626</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.40393264132699</v>
+        <v>8.953633662407924</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.91054153697714</v>
+        <v>52.28161684169162</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.14618062451461</v>
+        <v>55.06989192955994</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.83166592021083</v>
+        <v>13.0682433448823</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.82575033191944</v>
+        <v>35.82896730619424</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.16150868408174</v>
+        <v>45.45918704090312</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.203307355134296</v>
+        <v>2.96461759071008</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.25927639513972</v>
+        <v>41.75878490250629</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.65559572810665</v>
+        <v>48.19705591027771</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.638702187705182</v>
+        <v>8.062709088869774</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.69977431894216</v>
+        <v>67.59736218481811</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.80351541536115</v>
+        <v>76.62593223139557</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.70637176388945</v>
+        <v>73.85935686280865</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.11901654197892</v>
+        <v>81.34201952917054</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.6665758157587</v>
+        <v>90.54197615642627</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.88636564043844</v>
+        <v>15.11116457576558</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>75.68353850067642</v>
+        <v>73.78413541567629</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.78546868476965</v>
+        <v>79.48220856357401</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>49.910366564862</v>
+        <v>55.27332916560088</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.98903874857089</v>
+        <v>28.52783468270196</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.65168593250569</v>
+        <v>35.76027639406138</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.91265515711092</v>
+        <v>43.00461450883569</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.266546691818665</v>
+        <v>6.975034223892248</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.05358230573692</v>
+        <v>47.02697907122248</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.68506204661354</v>
+        <v>52.08925300966041</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.00118567266287</v>
+        <v>9.104922040631973</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.13173327551031</v>
+        <v>33.96275263147721</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.44495415121261</v>
+        <v>48.02724076193476</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4.405516777621674</v>
+        <v>1.573201966219006</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.54000634222848</v>
+        <v>37.10665831987473</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.81615273391452</v>
+        <v>48.63083260525758</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.798427872055552</v>
+        <v>3.640830691333363</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.46947100486931</v>
+        <v>58.38859436549484</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>72.30582330660118</v>
+        <v>75.39802717012444</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.87063950046503</v>
+        <v>64.32460218083835</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>74.68208025269533</v>
+        <v>76.7782968457341</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.78185453432835</v>
+        <v>86.4470211003612</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.28181746152454</v>
+        <v>10.24102935974688</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>66.95161102278578</v>
+        <v>71.29233661956015</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.63853803667797</v>
+        <v>81.65086639138262</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>8.020462571290039</v>
+        <v>15.24655810548608</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.810339076719121</v>
+        <v>7.906314894049114</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>11.52862906456824</v>
+        <v>18.41555818570693</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-5.939603451697423</v>
+        <v>2.02692114594085</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-2.104132425796482</v>
+        <v>2.244903761627466</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.5452468236768837</v>
+        <v>2.272625052456579</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-0.7834085415393801</v>
+        <v>6.82821549918269</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>11.52470518048435</v>
+        <v>11.72921137536581</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>15.64944508035067</v>
+        <v>16.61968108063166</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3.140485656269608</v>
+        <v>5.919661785469334</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>10.20978338623802</v>
+        <v>12.53817925986278</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>14.29491876682873</v>
+        <v>11.78403315194799</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.672524560897088</v>
+        <v>20.07829937585242</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2.79796523752934</v>
+        <v>12.25823504194989</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.26082889615124</v>
+        <v>13.9358699732105</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.68144283500553</v>
+        <v>6.401986787428378</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.47762655182288</v>
+        <v>19.03656156236954</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.83620227039275</v>
+        <v>28.76083577617596</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.948562774564053</v>
+        <v>-3.530376367967708</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.6083479535250511</v>
+        <v>1.826830327038937</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8.506568918918845</v>
+        <v>7.416140515969477</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1.186204015362328</v>
+        <v>-0.6675978878784825</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>12.33349255117995</v>
+        <v>12.75394849493978</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.352227562128576</v>
+        <v>17.23554356526411</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>7.933936429299688</v>
+        <v>16.83973633130798</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>14.00845716964628</v>
+        <v>20.46757035403854</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-5.696284969098905</v>
+        <v>2.29969439447677</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9.241976738925533</v>
+        <v>14.3594541221918</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>10.52705729151869</v>
+        <v>15.79649538757848</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1.83256185701698</v>
+        <v>9.093469240729267</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.86963552546792</v>
+        <v>24.29181302552704</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.64576824010388</v>
+        <v>25.78687379958907</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.55950762864751</v>
+        <v>29.71915106311949</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.5560704261001</v>
+        <v>38.12475259871493</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.59776833274907</v>
+        <v>38.04239867414599</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.07146456198164</v>
+        <v>25.85456801543057</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.38073705629954</v>
+        <v>40.51687124136853</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30.06348425691855</v>
+        <v>34.108088891934</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.65868192951149</v>
+        <v>12.3206911771091</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.08267627846901</v>
+        <v>28.84923674203998</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.94099770411071</v>
+        <v>36.67791975868759</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1.427318164418889</v>
+        <v>1.216025720343715</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.38662526491241</v>
+        <v>22.90096973518112</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.34518355954183</v>
+        <v>34.37467136889369</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>5.874295961955578</v>
+        <v>6.810719290491988</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.94068017096446</v>
+        <v>42.459514612128</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.4822744274621122</v>
+        <v>4.602383425833462</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1.354238326067392</v>
+        <v>8.354690560199167</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.469407347295622</v>
+        <v>16.6994047189869</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-8.744839097319865</v>
+        <v>-1.282873420079365</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>5.196782709589581</v>
+        <v>10.84106725585084</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.442768350326904</v>
+        <v>15.04216594266024</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-4.583440920571132</v>
+        <v>7.434925102397532</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.06813261406447</v>
+        <v>21.59601798876334</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.75108188475457</v>
+        <v>29.85782400347772</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.53702460090593</v>
+        <v>28.73677212051614</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.78931476306056</v>
+        <v>37.81990198024333</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.73630858546735</v>
+        <v>39.75903944910569</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3.887571809279503</v>
+        <v>10.2261753341469</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.41859726870433</v>
+        <v>30.977028248986</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.91725108868322</v>
+        <v>26.37823211657679</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>7.690517872863754</v>
+        <v>4.200377742786902</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.6898138195601</v>
+        <v>21.46597960017943</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.03913586911969</v>
+        <v>32.87545411621416</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-3.027372281060849</v>
+        <v>-3.903660512879718</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>13.61274702862426</v>
+        <v>12.06853441282448</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.34056997648418</v>
+        <v>31.03526285987336</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.027837219716577</v>
+        <v>1.1329593907736</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.59496604918087</v>
+        <v>29.08871903618254</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-3.503591100206485</v>
+        <v>3.228690861254393</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-3.803657831159835</v>
+        <v>3.296863982076314</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>8.247041404290954</v>
+        <v>15.29235003578508</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-9.139821589878171</v>
+        <v>-2.616936717366929</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2.82355543823741</v>
+        <v>8.511096473484908</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>9.999302498385521</v>
+        <v>13.61952381855734</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-5.880777355203747</v>
+        <v>1.105895108285651</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>15.3081552813244</v>
+        <v>14.87735868358158</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.70477095442411</v>
+        <v>26.03066967640112</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.99794854792109</v>
+        <v>16.48251676511427</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>23.06776599710727</v>
+        <v>24.0355397591635</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.5665371463002</v>
+        <v>27.09620953552564</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.5438768494225847</v>
+        <v>6.422764409268172</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>9.641531510019213</v>
+        <v>19.46455738260597</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>23.26410825705754</v>
+        <v>23.00655687437955</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.028604860848343</v>
+        <v>2.85977285565555</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.08234648924733</v>
+        <v>18.66630443759345</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.13410399229289</v>
+        <v>33.80610943235551</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.295939216692563</v>
+        <v>-1.988854632642674</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.49726109260744</v>
+        <v>11.38702926528148</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.14747125909731</v>
+        <v>31.25545437148921</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.5838745066332933</v>
+        <v>2.049592644496208</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.28718291922294</v>
+        <v>24.30920118076224</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.68570729497775</v>
+        <v>21.16418219277012</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>12.99634071773671</v>
+        <v>17.02739917105318</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.36797475457791</v>
+        <v>30.6228227912725</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.32870139108901</v>
+        <v>39.31873293360484</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.050453346341396</v>
+        <v>2.914706076667059</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.15448906766714</v>
+        <v>13.98419695856029</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.57074559495353</v>
+        <v>21.21903139084404</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.01534806686089</v>
+        <v>10.73787213021102</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.18683471086527</v>
+        <v>21.24727089910283</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.17357809793305</v>
+        <v>30.31656499726599</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.684030969976856</v>
+        <v>-7.3287763257587</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2.903212259321091</v>
+        <v>-0.7473091938644174</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.59556226955579</v>
+        <v>5.850446436021986</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.207973655043237</v>
+        <v>0.9996158365460097</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.11436325389873</v>
+        <v>17.39781031877191</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.80381974703053</v>
+        <v>27.05406449683024</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.25936124210937</v>
+        <v>16.93607804056121</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.88555153668379</v>
+        <v>33.31950313969533</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>44.18153205834832</v>
+        <v>36.77035394427907</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.119938663451006</v>
+        <v>6.645463259007183</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.14629495484095</v>
+        <v>16.38356920868528</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.55179081451274</v>
+        <v>23.28305098214821</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.9566008636224</v>
+        <v>55.39595815597265</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.68589316529042</v>
+        <v>43.97753662211355</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52.62494378869251</v>
+        <v>56.1715171304765</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.29202057639985</v>
+        <v>65.41327020893826</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.17419543087347</v>
+        <v>14.53335553140825</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>49.24650489327715</v>
+        <v>57.36911794087945</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.87020095436354</v>
+        <v>61.31689243660735</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.29868572826459</v>
+        <v>23.09176313911752</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.17200731073281</v>
+        <v>39.42563814293527</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.65311841130233</v>
+        <v>46.15706446304593</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.208348876842013</v>
+        <v>5.564083851004238</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.24752464285952</v>
+        <v>32.75324741004137</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.46642938266892</v>
+        <v>42.03126027738314</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.15438393081839</v>
+        <v>16.79086831440463</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>55.89868811916995</v>
+        <v>62.97109202053321</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.23566167287699</v>
+        <v>65.97710706712884</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>69.13986491705246</v>
+        <v>70.07468211860144</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>75.39316859733225</v>
+        <v>78.06727421731905</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.42066015680828</v>
+        <v>82.80058674215098</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.36714585912485</v>
+        <v>36.12794737540285</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.75634251719045</v>
+        <v>77.26167285662103</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>80.59845100805724</v>
+        <v>80.47368683017612</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>52.5485497229454</v>
+        <v>54.02922057038079</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.69082999789901</v>
+        <v>28.98867853828925</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.95289052274431</v>
+        <v>42.16829318608977</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.72083436428255</v>
+        <v>61.86061492955709</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.406104503340998</v>
+        <v>2.91035759651113</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.56925431567089</v>
+        <v>47.26602270335561</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>55.05855012564773</v>
+        <v>56.97337254862497</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.88381705393281</v>
+        <v>14.02836216463786</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.03772820428316</v>
+        <v>33.37463565949535</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.06092086093821</v>
+        <v>44.02948925561412</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4.247501690402569</v>
+        <v>1.240942373872198</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.0990192994778</v>
+        <v>29.16989481293948</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.85184764649688</v>
+        <v>41.9372280847338</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.4791527475188</v>
+        <v>11.65063574580723</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.99078644881027</v>
+        <v>56.91191528721131</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.59558828499378</v>
+        <v>67.62318871175769</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>67.57047430265492</v>
+        <v>61.24937539594887</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>72.89659887941224</v>
+        <v>72.06868667398358</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.48778181233565</v>
+        <v>85.08533143035244</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.366961375088</v>
+        <v>21.88349609399305</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.22804387960252</v>
+        <v>69.63015814905293</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>81.37438627295215</v>
+        <v>78.32824646092283</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.09902384361384</v>
+        <v>51.76248904876935</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.30317619768867</v>
+        <v>14.9956070376141</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.37763419112178</v>
+        <v>26.65707034030383</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.05013497706682</v>
+        <v>44.73541382462246</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.265714879085273</v>
+        <v>2.343967650166288</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.34165011446036</v>
+        <v>38.92029782198957</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.52896471800003</v>
+        <v>50.90983853449205</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.35722733021729</v>
+        <v>11.60878794549314</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.45886928601966</v>
+        <v>32.17835740478009</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.32783730178099</v>
+        <v>45.8464765096036</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.939214842180615</v>
+        <v>0.496942248604185</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.45626073429342</v>
+        <v>25.40708955075481</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.63538625460798</v>
+        <v>40.3083432402459</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.867515424185033</v>
+        <v>8.120344338178882</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.43094865218592</v>
+        <v>47.23496327842575</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.46536504563507</v>
+        <v>64.85042631970207</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>52.9227877577095</v>
+        <v>45.59102189184388</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>63.32364545030217</v>
+        <v>59.95072541578288</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.17881779264343</v>
+        <v>76.79240999852182</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.89731130566247</v>
+        <v>13.37883892928924</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.43727266460361</v>
+        <v>59.49552727078017</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>75.99060000524038</v>
+        <v>71.96242266490572</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.53537879693229</v>
+        <v>13.66699603349148</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.27990481180306</v>
+        <v>17.31282872327807</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.089581888309</v>
+        <v>23.63185353341467</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-4.946332025412378</v>
+        <v>1.128160419635904</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>4.723802019852791</v>
+        <v>5.088938013210129</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>6.735241188359449</v>
+        <v>4.60117208154826</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.7772603702825371</v>
+        <v>5.359981810327181</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.2157508354122</v>
+        <v>17.31751013390844</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.24711724363215</v>
+        <v>22.28474522678393</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.72425261744491</v>
+        <v>14.66246071768622</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.49242805844668</v>
+        <v>23.2088105480873</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.4207873581691</v>
+        <v>24.51829954291038</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1.839846115914675</v>
+        <v>6.081308560366356</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.81249764861207</v>
+        <v>16.66513182897277</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.00363216529171</v>
+        <v>13.49709694537774</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.53832545854684</v>
+        <v>7.739968975583903</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.25686227829718</v>
+        <v>21.94448604798353</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.29173602975079</v>
+        <v>29.55017636841967</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.758849265697091</v>
+        <v>-2.303538192268395</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>2.897357757130148</v>
+        <v>2.597155792384136</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>11.30790761824756</v>
+        <v>8.396560852104539</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.202240693880352</v>
+        <v>1.238035292886277</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.87802978405916</v>
+        <v>15.62264040812689</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.53887440908013</v>
+        <v>14.11427707307338</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.07434193654801</v>
+        <v>27.07617042409419</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.69044102827754</v>
+        <v>26.18096132217756</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2.038467175823829</v>
+        <v>2.872489838752173</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.71346050837295</v>
+        <v>20.64892575038708</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.7323447238709</v>
+        <v>21.12068984773983</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2.618387439825483</v>
+        <v>8.040673682203302</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.26382434743719</v>
+        <v>32.45755214427636</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.17008976094144</v>
+        <v>33.2443541942379</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.91743467556735</v>
+        <v>38.85546936842594</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.01699691341119</v>
+        <v>46.36808490294867</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.946739886406</v>
+        <v>44.54722243593726</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.879950252356661</v>
+        <v>12.81683296087985</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.83451543937062</v>
+        <v>47.01353142757141</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.81789689050906</v>
+        <v>40.54413247459413</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>12.79171941669613</v>
+        <v>10.24944921137599</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.42857544427529</v>
+        <v>31.45955335749845</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.36161358624268</v>
+        <v>36.13717305057753</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.872681710896277</v>
+        <v>1.302116397724568</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.93746465451411</v>
+        <v>24.59612769142858</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.74302083887776</v>
+        <v>34.74206556091273</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.205032351616524</v>
+        <v>6.567807529433846</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.82219338539301</v>
+        <v>45.42427338274852</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.241216259925359</v>
+        <v>3.729712848428285</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.40725283115977</v>
+        <v>18.61926891392008</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.24096179348221</v>
+        <v>22.74616437676555</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-4.396911852780963</v>
+        <v>1.203959666754624</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.89133062622526</v>
+        <v>17.19422598837467</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.98748778918747</v>
+        <v>20.65263273778551</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.8499027779595991</v>
+        <v>8.651800400622964</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.76428305365707</v>
+        <v>30.05663800706874</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.63579976490792</v>
+        <v>37.31877238198191</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.14602753583536</v>
+        <v>38.60683776301998</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>46.36774314041874</v>
+        <v>46.53962069694677</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>49.09607464288715</v>
+        <v>44.85678749132025</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-0.2182736836786496</v>
+        <v>3.91326950905195</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.45106668095873</v>
+        <v>37.72200094119484</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.06744959529624</v>
+        <v>32.77172563111232</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>6.065683735355567</v>
+        <v>3.054447341489553</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.69407848443447</v>
+        <v>23.94432100900205</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.3451001748867</v>
+        <v>32.55899162982114</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-3.354511550767505</v>
+        <v>-2.385883174482785</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.89198855950062</v>
+        <v>14.35964722225614</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.62482095669984</v>
+        <v>32.05074824672762</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>2.881339421587455</v>
+        <v>2.552968516804999</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.33903697849348</v>
+        <v>32.79114394868806</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1.798051529193454</v>
+        <v>4.269175508540709</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>12.5581771027585</v>
+        <v>13.83395129051069</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.11173809089234</v>
+        <v>22.44911446791698</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-4.722188858463912</v>
+        <v>-0.09128163623578089</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.52054138900347</v>
+        <v>13.58247999798078</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.50677435729004</v>
+        <v>19.33346008069611</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.1545840368292701</v>
+        <v>2.097079673425551</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.08122932467141</v>
+        <v>21.64878981682227</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.59943931792314</v>
+        <v>33.45700605810126</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.32923496767597</v>
+        <v>25.33797530033643</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.444934296051</v>
+        <v>33.05801237659044</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.59085909320716</v>
+        <v>35.97671259215024</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-0.7603425379543367</v>
+        <v>4.372953905956113</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.07421062445737</v>
+        <v>29.94787482620069</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.95397646493161</v>
+        <v>30.07226262203592</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>4.756446503451905</v>
+        <v>3.17477272327821</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.57584924924773</v>
+        <v>20.08790526882401</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.02461754909731</v>
+        <v>34.02373808244246</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-3.03749951384545</v>
+        <v>-0.5502406280744019</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.88687478797682</v>
+        <v>11.60430787865145</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.52468353897351</v>
+        <v>32.22320173050355</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.052048060379686</v>
+        <v>3.407110993595239</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.80574311590888</v>
+        <v>25.40359781630301</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.9119711076189</v>
+        <v>24.32559068226979</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.36810999135269</v>
+        <v>21.13047419881541</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.33733423043746</v>
+        <v>35.0105873505481</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.2671959036977</v>
+        <v>41.05991528744295</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.4438427313527313</v>
+        <v>-0.2868236312298365</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.90644114048896</v>
+        <v>16.29826093919359</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.61596212868907</v>
+        <v>23.23160798383451</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.8978236850263</v>
+        <v>10.36942373722279</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.68923728715032</v>
+        <v>23.33662425541438</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.33515069278957</v>
+        <v>32.18710026960051</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-6.584798594756538</v>
+        <v>-7.61932686622713</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2.643740909439881</v>
+        <v>0.4570670339194223</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.61777800424675</v>
+        <v>7.473084259042935</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-3.468937946555815</v>
+        <v>-0.02979287533331387</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.14947132143373</v>
+        <v>15.86698015826656</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.9062581823531</v>
+        <v>29.25659662343715</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.47917188362526</v>
+        <v>19.10642373991346</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.60339639971936</v>
+        <v>37.98969402666108</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.40294891613972</v>
+        <v>42.04797094528614</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-0.9675026005477427</v>
+        <v>0.1019747842815342</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.18605205596301</v>
+        <v>16.30314688304803</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.07798959712305</v>
+        <v>24.43209519184511</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.65908326811311</v>
+        <v>56.91421746461842</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.97493103450775</v>
+        <v>48.0494034507342</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.9501926135075</v>
+        <v>58.38666834484979</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>65.70686798856242</v>
+        <v>63.43452406402034</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.93699413249601</v>
+        <v>7.494167570397551</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>54.48051595930208</v>
+        <v>57.76132803662125</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>61.90834130574028</v>
+        <v>62.98594208188948</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.64756600624157</v>
+        <v>18.62225396481409</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.7798540191562</v>
+        <v>40.61133424032386</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.8011555036809</v>
+        <v>45.44588038486449</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.624851473802483</v>
+        <v>3.565842104258682</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.71658726316861</v>
+        <v>34.73262611802764</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.07232874605916</v>
+        <v>42.59117865589728</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>9.946676869075549</v>
+        <v>12.92411417022284</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.81924842460627</v>
+        <v>61.05336433647552</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.85856216973052</v>
+        <v>65.27273097794637</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.11480419573088</v>
+        <v>70.5352706183007</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>78.48884978733602</v>
+        <v>79.32034306151328</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.8887903479875</v>
+        <v>82.6951803583601</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.04894996192139</v>
+        <v>21.76457375559831</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>70.24645339100415</v>
+        <v>74.29820788022546</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>78.36582690636389</v>
+        <v>78.44983279643105</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>57.23364157650246</v>
+        <v>56.09407292636631</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>42.35751048485506</v>
+        <v>35.58113211217443</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>52.48013823841105</v>
+        <v>46.34415439569378</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>62.38767544475957</v>
+        <v>61.2179316100994</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>2.849340073024759</v>
+        <v>-0.4298625955555089</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>49.15629278700816</v>
+        <v>48.4975407313264</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>59.33492601426431</v>
+        <v>58.84971193869006</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.55849723603351</v>
+        <v>9.679519222942425</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.2895969603056</v>
+        <v>33.51863041473211</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.12639980055816</v>
+        <v>42.50619577676837</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.4325942817724204</v>
+        <v>-0.5880721049805615</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.84963029977932</v>
+        <v>30.07632752150345</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.0305592853923</v>
+        <v>41.7194186206223</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.623986052502939</v>
+        <v>8.284011747999802</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.50886457221286</v>
+        <v>54.49497456496264</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>68.99275769282677</v>
+        <v>66.20217380771709</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>67.48534198242956</v>
+        <v>62.07819968994954</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>74.76339959931984</v>
+        <v>73.50336030629535</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>86.68165683698957</v>
+        <v>84.19972119222162</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.49092510448539</v>
+        <v>10.32564005601911</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>66.71012294365502</v>
+        <v>66.37059375697508</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>78.05157357385313</v>
+        <v>75.19569694670886</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>51.83962250158677</v>
+        <v>53.88321375767646</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.97459697545127</v>
+        <v>19.9210539918105</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.96457507813798</v>
+        <v>31.15567410526614</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.67350716801764</v>
+        <v>46.15372132500265</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.8866321481364174</v>
+        <v>2.258620654120726</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.95519775935168</v>
+        <v>40.91585533478373</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>55.20905601648865</v>
+        <v>52.94306107341922</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.040811913366806</v>
+        <v>7.233101468021172</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.28413466469261</v>
+        <v>29.22167996653166</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.68600648295553</v>
+        <v>43.69291474230783</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.761191320588626</v>
+        <v>-3.179703505669149</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.04987648920618</v>
+        <v>21.82997978603622</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.37521391607206</v>
+        <v>38.49888674117308</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1.059875707488391</v>
+        <v>3.038716346914672</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.48644406681382</v>
+        <v>40.10415103316299</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>64.35076831313619</v>
+        <v>62.37091796084999</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>50.20282438863332</v>
+        <v>42.73947774478687</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>63.36733492395621</v>
+        <v>60.00038704354881</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>79.5799284056023</v>
+        <v>75.42071225019625</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.995229616876831</v>
+        <v>5.388115032829713</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.90452662870966</v>
+        <v>54.84830483625458</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>72.90135112366239</v>
+        <v>68.81995561946817</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.768912321179418</v>
+        <v>9.672567788561111</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.75350243125601</v>
+        <v>14.59188859978295</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.75610984601841</v>
+        <v>27.30507242548461</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1.90342755118203</v>
+        <v>-0.7252061750717722</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.69749500806169</v>
+        <v>13.61060653353778</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.56373466950474</v>
+        <v>15.35186603145631</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.39192830070326</v>
+        <v>1.933722458064462</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.44645470226874</v>
+        <v>30.85688882712976</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.74560743167159</v>
+        <v>36.73862273140148</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.50169250147844</v>
+        <v>18.18646474561566</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.4597540401293</v>
+        <v>25.05136256271751</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.84610687434963</v>
+        <v>25.46380573942529</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.337937599714895</v>
+        <v>6.588472224001254</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.6213818673159</v>
+        <v>18.02806985034556</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.89936062743501</v>
+        <v>29.46464203854932</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.4539531928443</v>
+        <v>9.698798705731324</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.29602916364796</v>
+        <v>24.30616329978887</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.19719107251397</v>
+        <v>29.97511891687329</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.3822133214110224</v>
+        <v>1.324242853713503</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.103255687640289</v>
+        <v>10.56581913854103</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.81759596803513</v>
+        <v>12.15043087558597</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.78351746786122</v>
+        <v>2.026689814499388</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.19235163573123</v>
+        <v>23.70095632124213</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.84024124551614</v>
+        <v>17.30270066297929</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.21906662709947</v>
+        <v>33.32279639178282</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.47608760153118</v>
+        <v>35.2020702476948</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.981222735290039</v>
+        <v>3.845011415933474</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.00108389609329</v>
+        <v>35.7292518844103</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.69745198991093</v>
+        <v>36.47283652529428</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.141728147057037</v>
+        <v>6.811809242824431</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.79328961358951</v>
+        <v>50.43476037848677</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.76796136668566</v>
+        <v>49.66885088476874</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>53.85953321513516</v>
+        <v>52.51474920750024</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>59.6335054388331</v>
+        <v>59.01874725941626</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.52936998555725</v>
+        <v>58.09620854225282</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.93418621946238</v>
+        <v>17.34778957999352</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>47.29441914651711</v>
+        <v>53.13382821448906</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>51.05350777344658</v>
+        <v>57.66391293849006</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.71986910713161</v>
+        <v>14.09165169715908</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.71799386728058</v>
+        <v>35.54848514524461</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.84411078275585</v>
+        <v>34.52458852193332</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.7902875788124</v>
+        <v>2.529344641660614</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.07442693454665</v>
+        <v>32.89159595432931</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.72182828805474</v>
+        <v>35.20835664423368</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.421121820957183</v>
+        <v>4.834238097796646</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>50.44106359712664</v>
+        <v>54.34042260581261</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.156837247110435</v>
+        <v>3.666351686057112</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.64418888498963</v>
+        <v>23.80302984858545</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.12181112355586</v>
+        <v>30.46695967754863</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.758590489796905</v>
+        <v>1.420094109066827</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.56551658942218</v>
+        <v>32.14711613217288</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.49976459871823</v>
+        <v>35.60753259079104</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>5.633393113408452</v>
+        <v>7.425517464014497</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>49.00095128917886</v>
+        <v>48.86857957735906</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.05171114555687</v>
+        <v>54.39831204964523</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.24536302124911</v>
+        <v>56.13999117112964</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>59.98810583804872</v>
+        <v>62.44731202228257</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.94035173403046</v>
+        <v>62.62423451963004</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.187082502811904</v>
+        <v>2.890127047266699</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.80969803948794</v>
+        <v>41.75935758204896</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>47.2997793919604</v>
+        <v>46.04327758508003</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.44771642603796</v>
+        <v>8.495383823014325</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.88134943583577</v>
+        <v>31.47648646905503</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.71685717069531</v>
+        <v>33.08705545491465</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-0.6106799451960008</v>
+        <v>1.462130711113947</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.17474170643301</v>
+        <v>25.45053803365993</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.89086335879084</v>
+        <v>34.79308641261015</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>2.976654189860046</v>
+        <v>4.422221523137129</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>47.33508399753873</v>
+        <v>46.53432466717688</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.45850373087789</v>
+        <v>1.668108260607365</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.40940156306507</v>
+        <v>16.12651308153851</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.67587309663154</v>
+        <v>28.79026913358603</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.4262382093128352</v>
+        <v>0.8875950623573985</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.81950843011832</v>
+        <v>28.05141004362432</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.83735067739798</v>
+        <v>35.20176082279373</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2.365963837464278</v>
+        <v>0.7670922068383916</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.69010358326625</v>
+        <v>39.97489144110326</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.15642240605779</v>
+        <v>50.70598272269108</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.99154041601145</v>
+        <v>43.28170309265874</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>49.97125950640915</v>
+        <v>50.40179439351719</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>53.71733129984386</v>
+        <v>56.05366105136379</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>3.668676867086653</v>
+        <v>0.3504118117005781</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.16628260157863</v>
+        <v>30.21236756187725</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.32815603357288</v>
+        <v>44.49276348945308</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.12137304442864</v>
+        <v>4.532177316502747</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.2493452664719</v>
+        <v>24.63431663893717</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.6934519948002</v>
+        <v>32.95467122411452</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-1.052018163000081</v>
+        <v>2.054639908603214</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.32855221053022</v>
+        <v>21.44588582557396</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.01149210959944</v>
+        <v>35.76248278851983</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-0.05579268513365676</v>
+        <v>2.975809800442004</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.57951456012012</v>
+        <v>36.73698159705002</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.05244188612038</v>
+        <v>28.49905077585327</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.4705648843289</v>
+        <v>25.1064152512662</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.35629764622928</v>
+        <v>39.17539977030505</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.81286661576755</v>
+        <v>39.59789606802669</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2.640319198722207</v>
+        <v>6.953850293267958</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.57531538035684</v>
+        <v>18.94299171497724</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.8479206799558</v>
+        <v>26.73841677266758</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.8013611961074</v>
+        <v>10.7253922417748</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.00885450454885</v>
+        <v>22.94952742999957</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.86156724811406</v>
+        <v>34.96717042897829</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-4.237003007457101</v>
+        <v>-3.782367579263045</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.486347033447966</v>
+        <v>7.520231445500922</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.00555024406225</v>
+        <v>14.16527850329783</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-4.570127069772692</v>
+        <v>-0.6259671671275697</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.61145638931672</v>
+        <v>20.19127515956551</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.49524281706849</v>
+        <v>39.76678319069094</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.94656340172643</v>
+        <v>23.39535867390176</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.82164053741724</v>
+        <v>44.5726442427186</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.72941431255357</v>
+        <v>49.45843052309958</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1.686136689014173</v>
+        <v>1.256862713953854</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.94023703122412</v>
+        <v>16.69051410942312</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.50194221371565</v>
+        <v>32.35622898316151</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.75939793942011</v>
+        <v>58.6868450319659</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.36410092415007</v>
+        <v>55.40456879661367</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>64.55559845082703</v>
+        <v>62.95182931244581</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>63.12499391923016</v>
+        <v>62.32573479551849</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.9668321217911</v>
+        <v>14.79539263089626</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.76470263469</v>
+        <v>61.39869067222983</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>61.22741806099279</v>
+        <v>63.17099922638506</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.57665523330618</v>
+        <v>19.54650200386697</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.61191817807413</v>
+        <v>40.80613318337089</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.23654297937229</v>
+        <v>45.48689019701874</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.230491362443498</v>
+        <v>3.894519335270846</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.6911251490049</v>
+        <v>41.76878989568496</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>44.20490073780665</v>
+        <v>45.64658108667979</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.867557365017671</v>
+        <v>7.376146179732299</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.26995202926231</v>
+        <v>65.21177344844041</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>69.87405401066471</v>
+        <v>71.18667011964077</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>76.15275081048379</v>
+        <v>75.98750126124247</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.31131203067605</v>
+        <v>83.42395690134319</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.10275831482106</v>
+        <v>86.58667213590135</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.88083552770388</v>
+        <v>20.51622173556103</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>73.18105880204055</v>
+        <v>74.91022817720223</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>78.45891055153311</v>
+        <v>81.01737465278076</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>59.83248175319302</v>
+        <v>61.5888673510981</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.75544649338971</v>
+        <v>47.65721037889938</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>56.74522162056833</v>
+        <v>53.58425488735641</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>60.80312460930352</v>
+        <v>63.2448364698251</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>7.083671329116971</v>
+        <v>7.150467599042287</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>55.27965075822232</v>
+        <v>54.28173642008516</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.44075276323231</v>
+        <v>59.80565074968996</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.77716990647462</v>
+        <v>11.21793885276957</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.94330605160745</v>
+        <v>35.64691840913314</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.38003083743331</v>
+        <v>43.71710161119339</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1.89415651534615</v>
+        <v>1.494566685077178</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.97830513628428</v>
+        <v>39.25650493231972</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.4842828561425</v>
+        <v>46.20536850743231</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>5.311668511015423</v>
+        <v>5.125378853013643</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.34570232076457</v>
+        <v>62.07553964988969</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.47006607403746</v>
+        <v>74.43631851920118</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>74.94739112044651</v>
+        <v>71.69605324792586</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.65452575495055</v>
+        <v>79.90475544748772</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>89.29794998602488</v>
+        <v>90.45894435367209</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>12.52566617448375</v>
+        <v>8.609038653035281</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70.70812154059351</v>
+        <v>67.54551427651887</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>79.2963287241958</v>
+        <v>77.34189873661924</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>53.79688952482093</v>
+        <v>57.36433958710646</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.6713903035565</v>
+        <v>28.90366538650224</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.52071060083634</v>
+        <v>36.81096026308444</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.94318725438707</v>
+        <v>46.33644803722861</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.285265550497318</v>
+        <v>6.823069116418647</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.13204036412034</v>
+        <v>46.23064403957827</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>55.18808787192603</v>
+        <v>55.53712208312101</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>7.64384970959706</v>
+        <v>5.658245151688654</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.88388286830572</v>
+        <v>29.50181453325253</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.69160094965859</v>
+        <v>44.22373170695062</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-0.3105461937574994</v>
+        <v>-1.474681438671723</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.09086061825839</v>
+        <v>30.18778498043573</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.85562991770215</v>
+        <v>44.35006318746638</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-0.3047323595609335</v>
+        <v>-0.9599784663951603</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.20455855934405</v>
+        <v>46.03128346204454</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.43043444267845</v>
+        <v>69.97243907962627</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.63470113010389</v>
+        <v>52.5634632212435</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.4221884359451</v>
+        <v>68.36358763066401</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>83.23718470608189</v>
+        <v>84.00034501627012</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.263880991642313</v>
+        <v>3.157865450063472</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.51479433779139</v>
+        <v>56.99735726413401</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.71847678690087</v>
+        <v>75.13577279607757</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.91666931565575</v>
+        <v>16.40488576766092</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.82599400793851</v>
+        <v>14.17294205064567</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.74529605094657</v>
+        <v>28.23362101941551</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.317828802624184</v>
+        <v>6.079232193956184</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.4219674146753</v>
+        <v>20.58361000551142</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.79694301808397</v>
+        <v>21.64670454425413</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.71350758751688</v>
+        <v>9.996014396957577</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.22167880803043</v>
+        <v>35.24116543088423</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.15114782531998</v>
+        <v>39.64048524928523</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.51544328042285</v>
+        <v>17.52473837050745</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.38683893021463</v>
+        <v>21.64817169345019</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.88863973135621</v>
+        <v>20.63727822336013</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.38299949352615</v>
+        <v>23.92076293814052</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.30271376528318</v>
+        <v>18.66636308731489</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.53259801490186</v>
+        <v>33.02792121345662</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.14758223483684</v>
+        <v>11.6855170171673</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.26029245942433</v>
+        <v>22.11058553018412</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.81626024037407</v>
+        <v>30.24457152313245</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.1974425596673</v>
+        <v>8.534906915663534</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.20597210031517</v>
+        <v>15.26347538990714</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.00864734199894</v>
+        <v>17.1345113790239</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2.732405233325089</v>
+        <v>2.695421377958379</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.1193339228055</v>
+        <v>20.3708648934083</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.79686352920643</v>
+        <v>22.30370290878129</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.48784821995889</v>
+        <v>27.78276937495607</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.81692126257997</v>
+        <v>32.27696612967078</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.22461911042863</v>
+        <v>7.293106332003102</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.62378804702283</v>
+        <v>35.63214408067671</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.05891799226684</v>
+        <v>35.95275837293519</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.57228936630825</v>
+        <v>11.73190243816676</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.83967095547318</v>
+        <v>47.1607072226691</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.76121563081499</v>
+        <v>46.96466011627892</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.69039473351631</v>
+        <v>49.05505063580803</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>57.05447588238039</v>
+        <v>55.28674917761285</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.95172876533439</v>
+        <v>54.44610512806514</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.32916244169783</v>
+        <v>33.27389929490856</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.55147630920762</v>
+        <v>49.16017246467949</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>53.34353584597518</v>
+        <v>53.39001843007028</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.22715327186392</v>
+        <v>17.63030277571604</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.55367857504788</v>
+        <v>31.25909452195588</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.4179930813299</v>
+        <v>34.66688182561592</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.44658282213201</v>
+        <v>10.23599949835682</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.62105537679037</v>
+        <v>33.18238742595385</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.587485523542</v>
+        <v>38.19218100531115</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.890663203376349</v>
+        <v>7.191028784926708</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.9308745612706</v>
+        <v>47.44849843596197</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.31737375008605</v>
+        <v>8.476080228132904</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.59755451937474</v>
+        <v>19.64311933631983</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.88746322001816</v>
+        <v>28.46367983523217</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.715401744852855</v>
+        <v>3.957325201606491</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.27379520019075</v>
+        <v>32.89993363812808</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>39.70311774106843</v>
+        <v>35.66424913779706</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.62251459166444</v>
+        <v>10.51581659046703</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.16504500484076</v>
+        <v>45.88311992398978</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.96592013814157</v>
+        <v>52.15999563971022</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.72439019598162</v>
+        <v>51.7415173019638</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>57.21683499212577</v>
+        <v>57.5779199957374</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>61.00877023918207</v>
+        <v>58.75142785258274</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.48142498785679</v>
+        <v>16.15569910698719</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>41.21828081528913</v>
+        <v>39.60303846875196</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.82966481513962</v>
+        <v>44.7638811688568</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>12.20552652190954</v>
+        <v>11.90493575766358</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.39106791911956</v>
+        <v>28.11790158082223</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.65049719970036</v>
+        <v>33.40973897008948</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.999262309672009</v>
+        <v>7.880129563406822</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.04604840370132</v>
+        <v>25.59582270702857</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.82394035868661</v>
+        <v>37.26310869624547</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6.295256393565488</v>
+        <v>5.122326154744396</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.19884024453297</v>
+        <v>39.50464748393013</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.238191043746856</v>
+        <v>5.057855927269902</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>15.56698372156371</v>
+        <v>12.80964175096075</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.08457496288262</v>
+        <v>26.48880263303487</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>8.329800570670017</v>
+        <v>3.401798764472563</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.108928441109</v>
+        <v>30.86904056862715</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.86042750747086</v>
+        <v>35.56207842843982</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.000274279858306</v>
+        <v>4.086558783462142</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.26079264417868</v>
+        <v>40.29254407308036</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>50.78914492998148</v>
+        <v>49.21955082670038</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.52244178957707</v>
+        <v>41.60827927332291</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.10810527347377</v>
+        <v>46.64238312389855</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.88331651968711</v>
+        <v>50.17689546219978</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.25355350176056</v>
+        <v>10.70436097424151</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.7284468374871</v>
+        <v>27.38414041005073</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.0421036622615</v>
+        <v>44.56406687061593</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>9.248768136023038</v>
+        <v>7.071413816485933</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.07539785427104</v>
+        <v>23.60020490107045</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.4177085730024</v>
+        <v>33.33742453996356</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.75789487159278</v>
+        <v>8.527497823676466</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.52261748814723</v>
+        <v>25.20643876661777</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>40.74814157814058</v>
+        <v>38.6165700900568</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>4.559672979847871</v>
+        <v>3.491544507227186</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.13677330766195</v>
+        <v>34.30945148023267</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.17277355476004</v>
+        <v>24.60713419691192</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.95367337538269</v>
+        <v>20.49954010703972</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.08656633644028</v>
+        <v>33.8423608970583</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.65886851133131</v>
+        <v>36.1297601026468</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>8.708999965794348</v>
+        <v>9.372258982731079</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.43300095798918</v>
+        <v>15.99514377462409</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.19798770727644</v>
+        <v>23.71264486508548</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.07606674582332</v>
+        <v>13.71763012682257</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.9985889004276</v>
+        <v>22.94045904327709</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.81882238781814</v>
+        <v>33.25205397966001</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>9.713372588745361</v>
+        <v>6.420136324351549</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.81997508343012</v>
+        <v>14.6018953668069</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.29429164853974</v>
+        <v>19.08434318524063</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>4.835444040975158</v>
+        <v>4.476216663030534</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.72948643360225</v>
+        <v>24.16251083975433</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.19449963395388</v>
+        <v>37.83336722226672</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.53882926522241</v>
+        <v>22.81437651396946</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.56910174371278</v>
+        <v>39.5775511382672</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>46.43875924110216</v>
+        <v>44.51640980030117</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.4869563104287</v>
+        <v>8.985484420625411</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.69212765684098</v>
+        <v>19.94256499527993</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.35868972708627</v>
+        <v>30.99768303326145</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.80659639824239</v>
+        <v>54.72448542513119</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.9148122732018</v>
+        <v>48.95880129148817</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>57.47717452076458</v>
+        <v>58.24097444548448</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.97177091314462</v>
+        <v>60.3450144920478</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.13386141501484</v>
+        <v>21.35328025268199</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>54.09922840570502</v>
+        <v>57.05360627061683</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>58.24855586188565</v>
+        <v>59.19471583831253</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.28763589732302</v>
+        <v>25.11967837479167</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.32651779765963</v>
+        <v>38.68081088395869</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.72332432605191</v>
+        <v>44.10738716397101</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.04915722161975</v>
+        <v>13.33798529776633</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.11594490534327</v>
+        <v>41.6854809188533</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.56613063627807</v>
+        <v>45.95451345317068</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>16.21165477958223</v>
+        <v>13.02632088913825</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.93076411770438</v>
+        <v>63.28119023541694</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.37909083267783</v>
+        <v>67.70129289899917</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>74.54435276114972</v>
+        <v>73.5684125305695</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>78.86790509042481</v>
+        <v>78.60775876974168</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>83.61009085336747</v>
+        <v>82.65456250196253</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.14533717292602</v>
+        <v>34.82864398837491</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>72.33784381433986</v>
+        <v>74.70149212021086</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>78.82573542127768</v>
+        <v>78.77942653780596</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>56.99924333087422</v>
+        <v>57.07086706644843</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>42.20207391193795</v>
+        <v>38.92520420434283</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.79584820573454</v>
+        <v>46.9530300650444</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>57.4670090915035</v>
+        <v>59.47251647418629</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.39990392053245</v>
+        <v>12.35724130787318</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>49.70085204682675</v>
+        <v>49.71902688795809</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>56.63075435205648</v>
+        <v>56.46952856833396</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.50693759627699</v>
+        <v>17.44912899785481</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.01701526079107</v>
+        <v>35.15672583416883</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.98794241699505</v>
+        <v>43.31906487237653</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.48794839689009</v>
+        <v>10.69752208689452</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>45.43148363841379</v>
+        <v>40.18549945271858</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>51.61759158281362</v>
+        <v>46.9525165961339</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.23831919772642</v>
+        <v>10.15828349517178</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.99015663816122</v>
+        <v>60.85935192449752</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>72.80897538390164</v>
+        <v>71.29249190718446</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>73.8713405585592</v>
+        <v>68.04539010173177</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>76.92185572378926</v>
+        <v>74.17145839039154</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>86.29896146748514</v>
+        <v>85.85783692883226</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.68667905453733</v>
+        <v>22.15343069013067</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>70.48401878189438</v>
+        <v>67.26545681970062</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>80.38451562227547</v>
+        <v>76.27479439805293</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.87333087970985</v>
+        <v>53.36823500551915</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.59669576919281</v>
+        <v>23.742507291221</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.58666282535461</v>
+        <v>31.45906272690686</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.94668171940575</v>
+        <v>43.38597539632687</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.527132885354366</v>
+        <v>8.818918242681253</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.84567402486826</v>
+        <v>42.20583135448083</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.82734816108547</v>
+        <v>52.8012315288041</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.71186105052272</v>
+        <v>12.10707269478296</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.7288965898608</v>
+        <v>32.95458869325057</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.90298048652117</v>
+        <v>45.01098135162403</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.95705226048463</v>
+        <v>10.09945512584378</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.10754118861848</v>
+        <v>37.79420435811905</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>52.21808769154103</v>
+        <v>48.12836799736657</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>10.31031113564459</v>
+        <v>6.006956279891639</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.54411654154319</v>
+        <v>51.74470450237811</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>70.94127369399172</v>
+        <v>69.18792803894169</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.87518950215409</v>
+        <v>54.35419804646477</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>67.69797366406567</v>
+        <v>64.72708120333702</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>81.3973594579504</v>
+        <v>81.57598228172689</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.73992373723615</v>
+        <v>13.1949479496326</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>58.66569632315867</v>
+        <v>58.92930914843137</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>76.42647217420445</v>
+        <v>75.12292355143188</v>
       </c>
     </row>
   </sheetData>
